--- a/summary-tables/SummaryTable_Area_wTotals_formatted_Scenario1.xlsx
+++ b/summary-tables/SummaryTable_Area_wTotals_formatted_Scenario1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\summary-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCD3600-0B9C-43D8-B794-9453092E3913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C759159-3692-42B4-B56A-53326D9BD4D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatted" sheetId="1" r:id="rId1"/>
@@ -1606,7 +1606,7 @@
   <dimension ref="B2:L155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,19 +1691,19 @@
         <v>6400</v>
       </c>
       <c r="H4" s="1">
-        <v>56200</v>
+        <v>41000</v>
       </c>
       <c r="I4" s="1">
-        <v>49800</v>
+        <v>34600</v>
       </c>
       <c r="J4" s="3">
         <v>86</v>
       </c>
       <c r="K4" s="1">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="L4" s="5">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1726,19 +1726,19 @@
         <v>100</v>
       </c>
       <c r="H5" s="2">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="I5" s="2">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="J5" s="4">
         <v>18</v>
       </c>
       <c r="K5" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" s="6">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1761,19 +1761,19 @@
         <v>200</v>
       </c>
       <c r="H6" s="1">
-        <v>13100</v>
+        <v>15600</v>
       </c>
       <c r="I6" s="1">
-        <v>12900</v>
+        <v>15400</v>
       </c>
       <c r="J6" s="3">
         <v>3</v>
       </c>
       <c r="K6" s="1">
+        <v>58</v>
+      </c>
+      <c r="L6" s="5">
         <v>55</v>
-      </c>
-      <c r="L6" s="5">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -1796,19 +1796,19 @@
         <v>900</v>
       </c>
       <c r="H7" s="2">
-        <v>11500</v>
+        <v>13600</v>
       </c>
       <c r="I7" s="2">
-        <v>10600</v>
+        <v>12700</v>
       </c>
       <c r="J7" s="4">
         <v>15</v>
       </c>
       <c r="K7" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L7" s="6">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1831,19 +1831,19 @@
         <v>1000</v>
       </c>
       <c r="H8" s="1">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="I8" s="1">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="J8" s="3">
         <v>8</v>
       </c>
       <c r="K8" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1866,264 +1866,264 @@
         <v>1000</v>
       </c>
       <c r="H9" s="2">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="I9" s="2">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J9" s="4">
         <v>28</v>
       </c>
       <c r="K9" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L9" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>496.188406426987</v>
+        <v>339.87759333421099</v>
       </c>
       <c r="D10" s="3">
-        <v>16900</v>
+        <v>900</v>
       </c>
       <c r="E10" s="1">
-        <v>30100</v>
+        <v>9400</v>
       </c>
       <c r="F10" s="5">
-        <v>13200</v>
+        <v>8500</v>
       </c>
       <c r="G10" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="H10" s="1">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="I10" s="1">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="J10" s="3">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="K10" s="1">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="L10" s="5">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C11" s="8">
-        <v>339.87759333421099</v>
+        <v>202.028360907456</v>
       </c>
       <c r="D11" s="4">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>9400</v>
+        <v>4600</v>
       </c>
       <c r="F11" s="6">
-        <v>8500</v>
+        <v>4600</v>
       </c>
       <c r="G11" s="4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="I11" s="2">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J11" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L11" s="6">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C12" s="7">
-        <v>1406.49380087586</v>
+        <v>494.63289052801701</v>
       </c>
       <c r="D12" s="3">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>60900</v>
+        <v>11300</v>
       </c>
       <c r="F12" s="5">
-        <v>34900</v>
+        <v>11300</v>
       </c>
       <c r="G12" s="3">
-        <v>2200</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>18300</v>
+        <v>9500</v>
       </c>
       <c r="I12" s="1">
-        <v>16100</v>
+        <v>9400</v>
       </c>
       <c r="J12" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="L12" s="5">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C13" s="8">
-        <v>494.63289052801701</v>
+        <v>496.188406426987</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>16900</v>
       </c>
       <c r="E13" s="2">
-        <v>11300</v>
+        <v>30100</v>
       </c>
       <c r="F13" s="6">
-        <v>11300</v>
+        <v>13200</v>
       </c>
       <c r="G13" s="4">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="H13" s="2">
-        <v>5700</v>
+        <v>8000</v>
       </c>
       <c r="I13" s="2">
-        <v>5600</v>
+        <v>7300</v>
       </c>
       <c r="J13" s="4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K13" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="L13" s="6">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
-        <v>202.028360907456</v>
+        <v>85.568222862049893</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>4600</v>
+        <v>1700</v>
       </c>
       <c r="F14" s="5">
-        <v>4600</v>
+        <v>1700</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="I14" s="1">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L14" s="5">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C15" s="8">
-        <v>197.00882046739301</v>
+        <v>116.297622410401</v>
       </c>
       <c r="D15" s="4">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="6">
-        <v>4200</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>2400</v>
       </c>
       <c r="I15" s="2">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="J15" s="4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L15" s="6">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7">
-        <v>85.568222862049893</v>
+        <v>1406.49380087586</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="E16" s="1">
-        <v>1700</v>
+        <v>60900</v>
       </c>
       <c r="F16" s="5">
-        <v>1700</v>
+        <v>34900</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="H16" s="1">
-        <v>800</v>
+        <v>20500</v>
       </c>
       <c r="I16" s="1">
-        <v>800</v>
+        <v>18300</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="L16" s="5">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -2146,19 +2146,19 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="I17" s="2">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="J17" s="4">
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L17" s="6">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -2181,89 +2181,89 @@
         <v>100</v>
       </c>
       <c r="H18" s="1">
-        <v>4800</v>
+        <v>8800</v>
       </c>
       <c r="I18" s="1">
-        <v>4700</v>
+        <v>8700</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L18" s="5">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C19" s="8">
-        <v>101.364205283625</v>
+        <v>197.00882046739301</v>
       </c>
       <c r="D19" s="4">
-        <v>100</v>
+        <v>4300</v>
       </c>
       <c r="E19" s="2">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="F19" s="6">
-        <v>1900</v>
+        <v>4200</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H19" s="2">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="I19" s="2">
-        <v>1000</v>
+        <v>3100</v>
       </c>
       <c r="J19" s="4">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K19" s="2">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="L19" s="6">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C20" s="7">
-        <v>125.58237485286701</v>
+        <v>101.364205283625</v>
       </c>
       <c r="D20" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="5">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="I20" s="1">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="J20" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L20" s="5">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -2286,89 +2286,89 @@
         <v>200</v>
       </c>
       <c r="H21" s="2">
-        <v>4700</v>
+        <v>8700</v>
       </c>
       <c r="I21" s="2">
-        <v>4500</v>
+        <v>8500</v>
       </c>
       <c r="J21" s="4">
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L21" s="6">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
-        <v>116.297622410401</v>
+        <v>413.19362160859401</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1">
-        <v>2000</v>
+        <v>7300</v>
       </c>
       <c r="F22" s="5">
-        <v>2000</v>
+        <v>7200</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>1000</v>
+        <v>6700</v>
       </c>
       <c r="I22" s="1">
-        <v>1000</v>
+        <v>6700</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L22" s="5">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C23" s="8">
-        <v>413.19362160859401</v>
+        <v>125.58237485286701</v>
       </c>
       <c r="D23" s="4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E23" s="2">
-        <v>7300</v>
+        <v>2800</v>
       </c>
       <c r="F23" s="6">
-        <v>7200</v>
+        <v>2400</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H23" s="2">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="I23" s="2">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="J23" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K23" s="2">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="L23" s="6">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -2391,439 +2391,439 @@
         <v>100</v>
       </c>
       <c r="H24" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I24" s="1">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L24" s="5">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C25" s="8">
-        <v>476.34036359432702</v>
+        <v>27.676562438789301</v>
       </c>
       <c r="D25" s="4">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E25" s="2">
-        <v>7800</v>
+        <v>1100</v>
       </c>
       <c r="F25" s="6">
-        <v>7600</v>
+        <v>400</v>
       </c>
       <c r="G25" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="I25" s="2">
-        <v>3800</v>
+        <v>500</v>
       </c>
       <c r="J25" s="4">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="K25" s="2">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="L25" s="6">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C26" s="7">
-        <v>151.979673540373</v>
+        <v>476.34036359432702</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E26" s="1">
-        <v>2500</v>
+        <v>7800</v>
       </c>
       <c r="F26" s="5">
-        <v>2500</v>
+        <v>7600</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H26" s="1">
-        <v>1200</v>
+        <v>7300</v>
       </c>
       <c r="I26" s="1">
-        <v>1200</v>
+        <v>7100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L26" s="5">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C27" s="8">
-        <v>509.72929670403499</v>
+        <v>151.979673540373</v>
       </c>
       <c r="D27" s="4">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>11400</v>
+        <v>2500</v>
       </c>
       <c r="F27" s="6">
-        <v>8200</v>
+        <v>2500</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>4100</v>
+        <v>2300</v>
       </c>
       <c r="I27" s="2">
-        <v>4100</v>
+        <v>2300</v>
       </c>
       <c r="J27" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L27" s="6">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C28" s="7">
-        <v>107.922986825775</v>
+        <v>509.72929670403499</v>
       </c>
       <c r="D28" s="3">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="E28" s="1">
-        <v>3000</v>
+        <v>11400</v>
       </c>
       <c r="F28" s="5">
-        <v>1600</v>
+        <v>8200</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="I28" s="1">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="J28" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K28" s="1">
         <v>37</v>
       </c>
       <c r="L28" s="5">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C29" s="8">
-        <v>344.27239858806701</v>
+        <v>120.846324603498</v>
       </c>
       <c r="D29" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E29" s="2">
-        <v>5800</v>
+        <v>1800</v>
       </c>
       <c r="F29" s="6">
-        <v>5300</v>
+        <v>1500</v>
       </c>
       <c r="G29" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H29" s="2">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="I29" s="2">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="J29" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K29" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L29" s="6">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C30" s="7">
-        <v>145.93119999578801</v>
+        <v>344.27239858806701</v>
       </c>
       <c r="D30" s="3">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="E30" s="1">
-        <v>4000</v>
+        <v>5800</v>
       </c>
       <c r="F30" s="5">
-        <v>2100</v>
+        <v>5300</v>
       </c>
       <c r="G30" s="3">
         <v>500</v>
       </c>
       <c r="H30" s="1">
-        <v>1800</v>
+        <v>5400</v>
       </c>
       <c r="I30" s="1">
-        <v>1300</v>
+        <v>4900</v>
       </c>
       <c r="J30" s="3">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K30" s="1">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L30" s="5">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C31" s="8">
-        <v>499.03605247411099</v>
+        <v>95.711917637985195</v>
       </c>
       <c r="D31" s="4">
-        <v>2800</v>
+        <v>200</v>
       </c>
       <c r="E31" s="2">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="F31" s="6">
-        <v>7200</v>
+        <v>1200</v>
       </c>
       <c r="G31" s="4">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>4800</v>
+        <v>1500</v>
       </c>
       <c r="I31" s="2">
-        <v>3700</v>
+        <v>1500</v>
       </c>
       <c r="J31" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K31" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L31" s="6">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C32" s="7">
-        <v>27.676562438789301</v>
+        <v>1.1859149762649099</v>
       </c>
       <c r="D32" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="K32" s="1">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L32" s="5">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="C33" s="8">
-        <v>114.845879044046</v>
+        <v>107.922986825775</v>
       </c>
       <c r="D33" s="4">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="E33" s="2">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="F33" s="6">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G33" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I33" s="2">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="J33" s="4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K33" s="2">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L33" s="6">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C34" s="7">
-        <v>164.162641224277</v>
+        <v>145.93119999578801</v>
       </c>
       <c r="D34" s="3">
-        <v>5700</v>
+        <v>1900</v>
       </c>
       <c r="E34" s="1">
-        <v>7900</v>
+        <v>4000</v>
       </c>
       <c r="F34" s="5">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G34" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H34" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="I34" s="1">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="J34" s="3">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="K34" s="1">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="L34" s="5">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C35" s="8">
-        <v>1890.31308806021</v>
+        <v>114.845879044046</v>
       </c>
       <c r="D35" s="4">
-        <v>20800</v>
+        <v>200</v>
       </c>
       <c r="E35" s="2">
-        <v>50100</v>
+        <v>1900</v>
       </c>
       <c r="F35" s="6">
-        <v>29300</v>
+        <v>1700</v>
       </c>
       <c r="G35" s="4">
-        <v>3300</v>
+        <v>100</v>
       </c>
       <c r="H35" s="2">
-        <v>15100</v>
+        <v>1700</v>
       </c>
       <c r="I35" s="2">
-        <v>11800</v>
+        <v>1600</v>
       </c>
       <c r="J35" s="4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K35" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L35" s="6">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C36" s="7">
-        <v>316.212062185295</v>
+        <v>499.03605247411099</v>
       </c>
       <c r="D36" s="3">
-        <v>15100</v>
+        <v>2800</v>
       </c>
       <c r="E36" s="1">
-        <v>19200</v>
+        <v>10000</v>
       </c>
       <c r="F36" s="5">
-        <v>4100</v>
+        <v>7200</v>
       </c>
       <c r="G36" s="3">
-        <v>5000</v>
+        <v>1100</v>
       </c>
       <c r="H36" s="1">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I36" s="1">
-        <v>2500</v>
+        <v>6300</v>
       </c>
       <c r="J36" s="3">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="K36" s="1">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="L36" s="5">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -2846,19 +2846,19 @@
         <v>100</v>
       </c>
       <c r="H37" s="2">
-        <v>3700</v>
+        <v>6800</v>
       </c>
       <c r="I37" s="2">
-        <v>3600</v>
+        <v>6700</v>
       </c>
       <c r="J37" s="4">
         <v>0</v>
       </c>
       <c r="K37" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L37" s="6">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -2881,369 +2881,369 @@
         <v>100</v>
       </c>
       <c r="H38" s="1">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="I38" s="1">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="J38" s="3">
         <v>13</v>
       </c>
       <c r="K38" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L38" s="5">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C39" s="8">
-        <v>120.846324603498</v>
+        <v>164.162641224277</v>
       </c>
       <c r="D39" s="4">
-        <v>300</v>
+        <v>5700</v>
       </c>
       <c r="E39" s="2">
-        <v>1800</v>
+        <v>7900</v>
       </c>
       <c r="F39" s="6">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="G39" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H39" s="2">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="I39" s="2">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="J39" s="4">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K39" s="2">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="L39" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C40" s="7">
-        <v>95.711917637985195</v>
+        <v>107.65341241807</v>
       </c>
       <c r="D40" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E40" s="1">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F40" s="5">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H40" s="1">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="I40" s="1">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="J40" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K40" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="L40" s="5">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C41" s="8">
-        <v>1391.8515591001401</v>
+        <v>64.243849065308396</v>
       </c>
       <c r="D41" s="4">
-        <v>36500</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>55800</v>
+        <v>700</v>
       </c>
       <c r="F41" s="6">
-        <v>19300</v>
+        <v>700</v>
       </c>
       <c r="G41" s="4">
-        <v>10300</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>18500</v>
+        <v>800</v>
       </c>
       <c r="I41" s="2">
-        <v>8200</v>
+        <v>800</v>
       </c>
       <c r="J41" s="4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L41" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C42" s="7">
-        <v>1307.23784973538</v>
+        <v>1890.31308806021</v>
       </c>
       <c r="D42" s="3">
-        <v>17400</v>
+        <v>20800</v>
       </c>
       <c r="E42" s="1">
-        <v>35700</v>
+        <v>50100</v>
       </c>
       <c r="F42" s="5">
-        <v>18300</v>
+        <v>29300</v>
       </c>
       <c r="G42" s="3">
-        <v>4200</v>
+        <v>3300</v>
       </c>
       <c r="H42" s="1">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="I42" s="1">
-        <v>7800</v>
+        <v>14200</v>
       </c>
       <c r="J42" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K42" s="1">
         <v>36</v>
       </c>
       <c r="L42" s="5">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C43" s="8">
-        <v>1.1859149762649099</v>
+        <v>290.31166828585901</v>
       </c>
       <c r="D43" s="4">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E43" s="2">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F43" s="6">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="G43" s="4">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="J43" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K43" s="2">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L43" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
-        <v>290.31166828585901</v>
+        <v>213.140723166008</v>
       </c>
       <c r="D44" s="3">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="E44" s="1">
-        <v>7000</v>
+        <v>4400</v>
       </c>
       <c r="F44" s="5">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="G44" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="H44" s="1">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="I44" s="1">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="J44" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K44" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L44" s="5">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C45" s="8">
-        <v>854.719517679349</v>
+        <v>1307.23784973538</v>
       </c>
       <c r="D45" s="4">
-        <v>2100</v>
+        <v>17400</v>
       </c>
       <c r="E45" s="2">
-        <v>12700</v>
+        <v>35700</v>
       </c>
       <c r="F45" s="6">
-        <v>10600</v>
+        <v>18300</v>
       </c>
       <c r="G45" s="4">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="H45" s="2">
-        <v>4500</v>
+        <v>13700</v>
       </c>
       <c r="I45" s="2">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="J45" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K45" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="L45" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="C46" s="7">
-        <v>213.140723166008</v>
+        <v>59.345403981058297</v>
       </c>
       <c r="D46" s="3">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="E46" s="1">
-        <v>4400</v>
+        <v>1100</v>
       </c>
       <c r="F46" s="5">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="I46" s="1">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="J46" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K46" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L46" s="5">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C47" s="8">
-        <v>512.70618747568994</v>
+        <v>316.212062185295</v>
       </c>
       <c r="D47" s="4">
-        <v>700</v>
+        <v>15100</v>
       </c>
       <c r="E47" s="2">
-        <v>6400</v>
+        <v>19200</v>
       </c>
       <c r="F47" s="6">
-        <v>5700</v>
+        <v>4100</v>
       </c>
       <c r="G47" s="4">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="H47" s="2">
-        <v>3200</v>
+        <v>7800</v>
       </c>
       <c r="I47" s="2">
         <v>2800</v>
       </c>
       <c r="J47" s="4">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="K47" s="2">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="L47" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="C48" s="7">
-        <v>64.243849065308396</v>
+        <v>512.70618747568994</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E48" s="1">
-        <v>700</v>
+        <v>6400</v>
       </c>
       <c r="F48" s="5">
-        <v>700</v>
+        <v>5700</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H48" s="1">
-        <v>300</v>
+        <v>5600</v>
       </c>
       <c r="I48" s="1">
-        <v>300</v>
+        <v>5200</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L48" s="5">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -3266,229 +3266,229 @@
         <v>100</v>
       </c>
       <c r="H49" s="2">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I49" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J49" s="4">
         <v>12</v>
       </c>
       <c r="K49" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L49" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C50" s="7">
-        <v>331.15227926952599</v>
+        <v>1391.8515591001401</v>
       </c>
       <c r="D50" s="3">
-        <v>2600</v>
+        <v>36500</v>
       </c>
       <c r="E50" s="1">
-        <v>6100</v>
+        <v>55800</v>
       </c>
       <c r="F50" s="5">
-        <v>3500</v>
+        <v>19300</v>
       </c>
       <c r="G50" s="3">
-        <v>600</v>
+        <v>10300</v>
       </c>
       <c r="H50" s="1">
-        <v>2400</v>
+        <v>19900</v>
       </c>
       <c r="I50" s="1">
-        <v>1800</v>
+        <v>9600</v>
       </c>
       <c r="J50" s="3">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="K50" s="1">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="L50" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C51" s="8">
-        <v>107.65341241807</v>
+        <v>331.15227926952599</v>
       </c>
       <c r="D51" s="4">
-        <v>500</v>
+        <v>2600</v>
       </c>
       <c r="E51" s="2">
-        <v>1500</v>
+        <v>6100</v>
       </c>
       <c r="F51" s="6">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="G51" s="4">
         <v>600</v>
       </c>
       <c r="H51" s="2">
-        <v>1300</v>
+        <v>3900</v>
       </c>
       <c r="I51" s="2">
-        <v>700</v>
+        <v>3300</v>
       </c>
       <c r="J51" s="4">
         <v>10</v>
       </c>
       <c r="K51" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L51" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="C52" s="7">
-        <v>155.042279693214</v>
+        <v>56.508938850792603</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E52" s="1">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="5">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H52" s="1">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="I52" s="1">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="J52" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K52" s="1">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="L52" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C53" s="8">
-        <v>59.345403981058297</v>
+        <v>157.88652454704501</v>
       </c>
       <c r="D53" s="4">
-        <v>500</v>
+        <v>2700</v>
       </c>
       <c r="E53" s="2">
-        <v>1100</v>
+        <v>3900</v>
       </c>
       <c r="F53" s="6">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="G53" s="4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H53" s="2">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="I53" s="2">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="J53" s="4">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K53" s="2">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="L53" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C54" s="7">
-        <v>260.394231304941</v>
+        <v>155.042279693214</v>
       </c>
       <c r="D54" s="3">
-        <v>7100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>9600</v>
+        <v>1600</v>
       </c>
       <c r="F54" s="5">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="G54" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="H54" s="1">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="I54" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J54" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="L54" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C55" s="8">
-        <v>577.43037372527101</v>
+        <v>854.719517679349</v>
       </c>
       <c r="D55" s="4">
-        <v>14600</v>
+        <v>2100</v>
       </c>
       <c r="E55" s="2">
-        <v>20700</v>
+        <v>12700</v>
       </c>
       <c r="F55" s="6">
-        <v>6100</v>
+        <v>10600</v>
       </c>
       <c r="G55" s="4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="I55" s="2">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="J55" s="4">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="K55" s="2">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L55" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -3511,509 +3511,509 @@
         <v>800</v>
       </c>
       <c r="H56" s="1">
-        <v>3300</v>
+        <v>5000</v>
       </c>
       <c r="I56" s="1">
-        <v>2500</v>
+        <v>4200</v>
       </c>
       <c r="J56" s="3">
         <v>9</v>
       </c>
       <c r="K56" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L56" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C57" s="8">
-        <v>157.88652454704501</v>
+        <v>447.42111316211299</v>
       </c>
       <c r="D57" s="4">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="2">
-        <v>3900</v>
+        <v>7100</v>
       </c>
       <c r="F57" s="6">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="G57" s="4">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H57" s="2">
-        <v>1300</v>
+        <v>4800</v>
       </c>
       <c r="I57" s="2">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="J57" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K57" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L57" s="6">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C58" s="7">
-        <v>411.95410230322199</v>
+        <v>773.33737477900399</v>
       </c>
       <c r="D58" s="3">
-        <v>5600</v>
+        <v>1600</v>
       </c>
       <c r="E58" s="1">
-        <v>9400</v>
+        <v>8300</v>
       </c>
       <c r="F58" s="5">
-        <v>3800</v>
+        <v>6700</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="H58" s="1">
-        <v>2100</v>
+        <v>7100</v>
       </c>
       <c r="I58" s="1">
-        <v>1900</v>
+        <v>6300</v>
       </c>
       <c r="J58" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K58" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L58" s="5">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C59" s="8">
-        <v>56.508938850792603</v>
+        <v>411.95410230322199</v>
       </c>
       <c r="D59" s="4">
-        <v>700</v>
+        <v>5600</v>
       </c>
       <c r="E59" s="2">
-        <v>1200</v>
+        <v>9400</v>
       </c>
       <c r="F59" s="6">
-        <v>500</v>
+        <v>3800</v>
       </c>
       <c r="G59" s="4">
         <v>200</v>
       </c>
       <c r="H59" s="2">
-        <v>400</v>
+        <v>3300</v>
       </c>
       <c r="I59" s="2">
-        <v>200</v>
+        <v>3100</v>
       </c>
       <c r="J59" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K59" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L59" s="6">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C60" s="7">
-        <v>99.749783688097097</v>
+        <v>210.54261478070401</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="1">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="F60" s="5">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H60" s="1">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="I60" s="1">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="J60" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K60" s="1">
+        <v>24</v>
+      </c>
+      <c r="L60" s="5">
         <v>17</v>
-      </c>
-      <c r="L60" s="5">
-        <v>13</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C61" s="8">
-        <v>773.33737477900399</v>
+        <v>99.749783688097097</v>
       </c>
       <c r="D61" s="4">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="E61" s="2">
-        <v>8300</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="6">
-        <v>6700</v>
+        <v>800</v>
       </c>
       <c r="G61" s="4">
+        <v>100</v>
+      </c>
+      <c r="H61" s="2">
+        <v>900</v>
+      </c>
+      <c r="I61" s="2">
         <v>800</v>
       </c>
-      <c r="H61" s="2">
-        <v>4200</v>
-      </c>
-      <c r="I61" s="2">
-        <v>3400</v>
-      </c>
       <c r="J61" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K61" s="2">
+        <v>20</v>
+      </c>
+      <c r="L61" s="6">
         <v>16</v>
-      </c>
-      <c r="L61" s="6">
-        <v>13</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C62" s="7">
-        <v>39.194420614384498</v>
+        <v>21.8307668974875</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F62" s="5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="1">
         <v>200</v>
       </c>
       <c r="I62" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K62" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L62" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C63" s="8">
-        <v>210.54261478070401</v>
+        <v>39.194420614384498</v>
       </c>
       <c r="D63" s="4">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E63" s="2">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="F63" s="6">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="G63" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="I63" s="2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="J63" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K63" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L63" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C64" s="7">
-        <v>155.16676243044901</v>
+        <v>115.338209119553</v>
       </c>
       <c r="D64" s="3">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="E64" s="1">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="F64" s="5">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G64" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H64" s="1">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="I64" s="1">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="J64" s="3">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K64" s="1">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L64" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="C65" s="8">
-        <v>111.987511316007</v>
+        <v>170.00440862177601</v>
       </c>
       <c r="D65" s="4">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E65" s="2">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="F65" s="6">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="G65" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H65" s="2">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="I65" s="2">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="J65" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K65" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L65" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="7">
+        <v>155.16676243044901</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>100</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1300</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J66" s="3">
         <v>8</v>
       </c>
-      <c r="C66" s="7">
-        <v>447.42111316211299</v>
-      </c>
-      <c r="D66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="E66" s="1">
-        <v>7100</v>
-      </c>
-      <c r="F66" s="5">
-        <v>4000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>800</v>
-      </c>
-      <c r="H66" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I66" s="1">
-        <v>2200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>9</v>
-      </c>
       <c r="K66" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L66" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C67" s="8">
-        <v>115.338209119553</v>
+        <v>577.43037372527101</v>
       </c>
       <c r="D67" s="4">
-        <v>2700</v>
+        <v>14600</v>
       </c>
       <c r="E67" s="2">
-        <v>3700</v>
+        <v>20700</v>
       </c>
       <c r="F67" s="6">
-        <v>1000</v>
+        <v>6100</v>
       </c>
       <c r="G67" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H67" s="2">
-        <v>500</v>
+        <v>4600</v>
       </c>
       <c r="I67" s="2">
-        <v>500</v>
+        <v>3100</v>
       </c>
       <c r="J67" s="4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K67" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L67" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="C68" s="7">
-        <v>78.918319133637993</v>
+        <v>111.987511316007</v>
       </c>
       <c r="D68" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E68" s="1">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="F68" s="5">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H68" s="1">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="I68" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J68" s="3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K68" s="1">
         <v>29</v>
       </c>
       <c r="L68" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C69" s="8">
-        <v>205.980426932803</v>
+        <v>78.918319133637993</v>
       </c>
       <c r="D69" s="4">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E69" s="2">
-        <v>3300</v>
+        <v>1900</v>
       </c>
       <c r="F69" s="6">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G69" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I69" s="2">
         <v>700</v>
       </c>
       <c r="J69" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K69" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="L69" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C70" s="7">
-        <v>491.65592965925202</v>
+        <v>124.16426071444999</v>
       </c>
       <c r="D70" s="3">
-        <v>4800</v>
+        <v>100</v>
       </c>
       <c r="E70" s="1">
-        <v>8500</v>
+        <v>900</v>
       </c>
       <c r="F70" s="5">
-        <v>3700</v>
+        <v>800</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
         <v>1000</v>
       </c>
-      <c r="H70" s="1">
-        <v>3000</v>
-      </c>
       <c r="I70" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J70" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K70" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L70" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -4036,1559 +4036,1559 @@
         <v>200</v>
       </c>
       <c r="H71" s="2">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="I71" s="2">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="J71" s="4">
         <v>4</v>
       </c>
       <c r="K71" s="2">
+        <v>19</v>
+      </c>
+      <c r="L71" s="6">
         <v>15</v>
-      </c>
-      <c r="L71" s="6">
-        <v>11</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C72" s="7">
-        <v>21.8307668974875</v>
+        <v>260.394231304941</v>
       </c>
       <c r="D72" s="3">
-        <v>300</v>
+        <v>7100</v>
       </c>
       <c r="E72" s="1">
-        <v>500</v>
+        <v>9600</v>
       </c>
       <c r="F72" s="5">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G72" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="H72" s="1">
-        <v>200</v>
+        <v>2600</v>
       </c>
       <c r="I72" s="1">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="J72" s="3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K72" s="1">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L72" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C73" s="8">
-        <v>170.00440862177601</v>
+        <v>205.980426932803</v>
       </c>
       <c r="D73" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3300</v>
+      </c>
+      <c r="F73" s="6">
         <v>1500</v>
       </c>
-      <c r="E73" s="2">
-        <v>2700</v>
-      </c>
-      <c r="F73" s="6">
-        <v>1200</v>
-      </c>
       <c r="G73" s="4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H73" s="2">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="I73" s="2">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="J73" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K73" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L73" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C74" s="7">
-        <v>95.884863479733795</v>
+        <v>491.65592965925202</v>
       </c>
       <c r="D74" s="3">
-        <v>300</v>
+        <v>4800</v>
       </c>
       <c r="E74" s="1">
+        <v>8500</v>
+      </c>
+      <c r="F74" s="5">
+        <v>3700</v>
+      </c>
+      <c r="G74" s="3">
         <v>1000</v>
       </c>
-      <c r="F74" s="5">
-        <v>700</v>
-      </c>
-      <c r="G74" s="3">
-        <v>500</v>
-      </c>
       <c r="H74" s="1">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="I74" s="1">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="J74" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K74" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L74" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C75" s="8">
-        <v>124.16426071444999</v>
+        <v>101.73044050137101</v>
       </c>
       <c r="D75" s="4">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="E75" s="2">
+        <v>2200</v>
+      </c>
+      <c r="F75" s="6">
+        <v>500</v>
+      </c>
+      <c r="G75" s="4">
+        <v>200</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1100</v>
+      </c>
+      <c r="I75" s="2">
         <v>900</v>
       </c>
-      <c r="F75" s="6">
-        <v>800</v>
-      </c>
-      <c r="G75" s="4">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2">
-        <v>400</v>
-      </c>
-      <c r="I75" s="2">
-        <v>400</v>
-      </c>
       <c r="J75" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K75" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L75" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C76" s="7">
-        <v>124.932468750914</v>
+        <v>33.829419291167298</v>
       </c>
       <c r="D76" s="3">
-        <v>3400</v>
+        <v>200</v>
       </c>
       <c r="E76" s="1">
-        <v>4200</v>
+        <v>400</v>
       </c>
       <c r="F76" s="5">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G76" s="3">
+        <v>200</v>
+      </c>
+      <c r="H76" s="1">
+        <v>500</v>
+      </c>
+      <c r="I76" s="1">
         <v>300</v>
       </c>
-      <c r="H76" s="1">
-        <v>800</v>
-      </c>
-      <c r="I76" s="1">
-        <v>500</v>
-      </c>
       <c r="J76" s="3">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K76" s="1">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L76" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="C77" s="8">
-        <v>83.228908110546499</v>
+        <v>95.884863479733795</v>
       </c>
       <c r="D77" s="4">
+        <v>300</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F77" s="6">
+        <v>700</v>
+      </c>
+      <c r="G77" s="4">
         <v>500</v>
       </c>
-      <c r="E77" s="2">
-        <v>900</v>
-      </c>
-      <c r="F77" s="6">
-        <v>400</v>
-      </c>
-      <c r="G77" s="4">
-        <v>100</v>
-      </c>
       <c r="H77" s="2">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="I77" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J77" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K77" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L77" s="6">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="C78" s="7">
-        <v>92.424345096758302</v>
+        <v>83.228908110546499</v>
       </c>
       <c r="D78" s="3">
+        <v>500</v>
+      </c>
+      <c r="E78" s="1">
+        <v>900</v>
+      </c>
+      <c r="F78" s="5">
+        <v>400</v>
+      </c>
+      <c r="G78" s="3">
+        <v>100</v>
+      </c>
+      <c r="H78" s="1">
         <v>800</v>
       </c>
-      <c r="E78" s="1">
-        <v>1300</v>
-      </c>
-      <c r="F78" s="5">
-        <v>500</v>
-      </c>
-      <c r="G78" s="3">
-        <v>200</v>
-      </c>
-      <c r="H78" s="1">
-        <v>500</v>
-      </c>
       <c r="I78" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="J78" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K78" s="1">
         <v>20</v>
       </c>
       <c r="L78" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C79" s="8">
-        <v>110.58451637028099</v>
+        <v>43.134278765713397</v>
       </c>
       <c r="D79" s="4">
         <v>200</v>
       </c>
       <c r="E79" s="2">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F79" s="6">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G79" s="4">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
         <v>300</v>
-      </c>
-      <c r="H79" s="2">
-        <v>600</v>
       </c>
       <c r="I79" s="2">
         <v>300</v>
       </c>
       <c r="J79" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K79" s="2">
+        <v>18</v>
+      </c>
+      <c r="L79" s="6">
         <v>13</v>
-      </c>
-      <c r="L79" s="6">
-        <v>9</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="C80" s="7">
-        <v>52.753586155478899</v>
+        <v>110.58451637028099</v>
       </c>
       <c r="D80" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E80" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F80" s="5">
+        <v>600</v>
+      </c>
+      <c r="G80" s="3">
         <v>300</v>
       </c>
-      <c r="G80" s="3">
-        <v>200</v>
-      </c>
       <c r="H80" s="1">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="I80" s="1">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="J80" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K80" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L80" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C81" s="8">
-        <v>235.44144687327801</v>
+        <v>124.932468750914</v>
       </c>
       <c r="D81" s="4">
-        <v>700</v>
+        <v>3400</v>
       </c>
       <c r="E81" s="2">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="F81" s="6">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="G81" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H81" s="2">
         <v>1200</v>
       </c>
       <c r="I81" s="2">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="J81" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K81" s="2">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="L81" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="C82" s="7">
-        <v>33.829419291167298</v>
+        <v>14.4952248380496</v>
       </c>
       <c r="D82" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E82" s="1">
         <v>400</v>
       </c>
       <c r="F82" s="5">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
         <v>200</v>
       </c>
-      <c r="G82" s="3">
+      <c r="I82" s="1">
         <v>200</v>
       </c>
-      <c r="H82" s="1">
-        <v>300</v>
-      </c>
-      <c r="I82" s="1">
-        <v>100</v>
-      </c>
       <c r="J82" s="3">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="K82" s="1">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="L82" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C83" s="8">
-        <v>363.135024368833</v>
+        <v>52.753586155478899</v>
       </c>
       <c r="D83" s="4">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="E83" s="2">
-        <v>6100</v>
+        <v>700</v>
       </c>
       <c r="F83" s="6">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="G83" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H83" s="2">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="I83" s="2">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="J83" s="4">
+        <v>11</v>
+      </c>
+      <c r="K83" s="2">
+        <v>23</v>
+      </c>
+      <c r="L83" s="6">
         <v>12</v>
-      </c>
-      <c r="K83" s="2">
-        <v>21</v>
-      </c>
-      <c r="L83" s="6">
-        <v>9</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="C84" s="7">
-        <v>137.00541351475999</v>
+        <v>103.55758268594499</v>
       </c>
       <c r="D84" s="3">
         <v>400</v>
       </c>
       <c r="E84" s="1">
+        <v>900</v>
+      </c>
+      <c r="F84" s="5">
+        <v>500</v>
+      </c>
+      <c r="G84" s="3">
+        <v>400</v>
+      </c>
+      <c r="H84" s="1">
         <v>1200</v>
       </c>
-      <c r="F84" s="5">
+      <c r="I84" s="1">
         <v>800</v>
       </c>
-      <c r="G84" s="3">
-        <v>300</v>
-      </c>
-      <c r="H84" s="1">
-        <v>700</v>
-      </c>
-      <c r="I84" s="1">
-        <v>400</v>
-      </c>
       <c r="J84" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K84" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L84" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="C85" s="8">
-        <v>43.134278765713397</v>
+        <v>363.135024368833</v>
       </c>
       <c r="D85" s="4">
-        <v>200</v>
+        <v>3800</v>
       </c>
       <c r="E85" s="2">
+        <v>6100</v>
+      </c>
+      <c r="F85" s="6">
+        <v>2300</v>
+      </c>
+      <c r="G85" s="4">
         <v>400</v>
       </c>
-      <c r="F85" s="6">
-        <v>200</v>
-      </c>
-      <c r="G85" s="4">
-        <v>0</v>
-      </c>
       <c r="H85" s="2">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="I85" s="2">
-        <v>200</v>
+        <v>2100</v>
       </c>
       <c r="J85" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K85" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L85" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C86" s="7">
-        <v>101.73044050137101</v>
+        <v>176.77329204288799</v>
       </c>
       <c r="D86" s="3">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="E86" s="1">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="F86" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G86" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H86" s="1">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="I86" s="1">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="J86" s="3">
+        <v>7</v>
+      </c>
+      <c r="K86" s="1">
         <v>19</v>
       </c>
-      <c r="K86" s="1">
-        <v>27</v>
-      </c>
       <c r="L86" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C87" s="8">
-        <v>380.71160928159202</v>
+        <v>92.424345096758302</v>
       </c>
       <c r="D87" s="4">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="E87" s="2">
-        <v>4300</v>
+        <v>1300</v>
       </c>
       <c r="F87" s="6">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G87" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H87" s="2">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="I87" s="2">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="J87" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K87" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L87" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="C88" s="7">
-        <v>339.03193591173402</v>
+        <v>85.215944153242106</v>
       </c>
       <c r="D88" s="3">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="E88" s="1">
-        <v>5800</v>
+        <v>800</v>
       </c>
       <c r="F88" s="5">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G88" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H88" s="1">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="I88" s="1">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="J88" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K88" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L88" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="C89" s="8">
-        <v>138.24022353009201</v>
+        <v>84.421644650153496</v>
       </c>
       <c r="D89" s="4">
-        <v>3100</v>
+        <v>200</v>
       </c>
       <c r="E89" s="2">
-        <v>3800</v>
+        <v>600</v>
       </c>
       <c r="F89" s="6">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G89" s="4">
+        <v>100</v>
+      </c>
+      <c r="H89" s="2">
         <v>600</v>
       </c>
-      <c r="H89" s="2">
-        <v>900</v>
-      </c>
       <c r="I89" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J89" s="4">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="K89" s="2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L89" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="C90" s="7">
-        <v>928.81910401452899</v>
+        <v>34.740374167911497</v>
       </c>
       <c r="D90" s="3">
-        <v>25000</v>
+        <v>400</v>
       </c>
       <c r="E90" s="1">
-        <v>29100</v>
+        <v>500</v>
       </c>
       <c r="F90" s="5">
-        <v>4100</v>
+        <v>100</v>
       </c>
       <c r="G90" s="3">
-        <v>3700</v>
+        <v>200</v>
       </c>
       <c r="H90" s="1">
-        <v>7100</v>
+        <v>400</v>
       </c>
       <c r="I90" s="1">
-        <v>3400</v>
+        <v>200</v>
       </c>
       <c r="J90" s="3">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K90" s="1">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L90" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C91" s="8">
-        <v>80.270260120692399</v>
+        <v>235.44144687327801</v>
       </c>
       <c r="D91" s="4">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E91" s="2">
+        <v>2100</v>
+      </c>
+      <c r="F91" s="6">
+        <v>1400</v>
+      </c>
+      <c r="G91" s="4">
         <v>500</v>
       </c>
-      <c r="F91" s="6">
-        <v>500</v>
-      </c>
-      <c r="G91" s="4">
-        <v>300</v>
-      </c>
       <c r="H91" s="2">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="I91" s="2">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="J91" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K91" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L91" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="C92" s="7">
-        <v>176.77329204288799</v>
+        <v>928.81910401452899</v>
       </c>
       <c r="D92" s="3">
-        <v>800</v>
+        <v>25000</v>
       </c>
       <c r="E92" s="1">
-        <v>1800</v>
+        <v>29100</v>
       </c>
       <c r="F92" s="5">
-        <v>1000</v>
+        <v>4100</v>
       </c>
       <c r="G92" s="3">
-        <v>400</v>
+        <v>3700</v>
       </c>
       <c r="H92" s="1">
-        <v>900</v>
+        <v>9900</v>
       </c>
       <c r="I92" s="1">
-        <v>500</v>
+        <v>6200</v>
       </c>
       <c r="J92" s="3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K92" s="1">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="L92" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C93" s="8">
-        <v>267.926220506096</v>
+        <v>137.00541351475999</v>
       </c>
       <c r="D93" s="4">
-        <v>3400</v>
+        <v>400</v>
       </c>
       <c r="E93" s="2">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="F93" s="6">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G93" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H93" s="2">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="I93" s="2">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J93" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K93" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L93" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C94" s="7">
-        <v>70.611976668679802</v>
+        <v>110.744573336139</v>
       </c>
       <c r="D94" s="3">
-        <v>2600</v>
+        <v>1200</v>
       </c>
       <c r="E94" s="1">
-        <v>2900</v>
+        <v>1700</v>
       </c>
       <c r="F94" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G94" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H94" s="1">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="I94" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J94" s="3">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="K94" s="1">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="L94" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C95" s="8">
-        <v>110.744573336139</v>
+        <v>115.35180092047899</v>
       </c>
       <c r="D95" s="4">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E95" s="2">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="F95" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G95" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H95" s="2">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I95" s="2">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="J95" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K95" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L95" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="C96" s="7">
-        <v>85.215944153242106</v>
+        <v>22.9246785522</v>
       </c>
       <c r="D96" s="3">
         <v>300</v>
       </c>
       <c r="E96" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F96" s="5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G96" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I96" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J96" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K96" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L96" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C97" s="8">
-        <v>84.421644650153496</v>
+        <v>380.71160928159202</v>
       </c>
       <c r="D97" s="4">
-        <v>200</v>
+        <v>2300</v>
       </c>
       <c r="E97" s="2">
-        <v>600</v>
+        <v>4300</v>
       </c>
       <c r="F97" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G97" s="4">
         <v>400</v>
       </c>
-      <c r="G97" s="4">
-        <v>100</v>
-      </c>
       <c r="H97" s="2">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="I97" s="2">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="J97" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K97" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L97" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C98" s="7">
-        <v>419.92496383397997</v>
+        <v>339.03193591173402</v>
       </c>
       <c r="D98" s="3">
-        <v>5900</v>
+        <v>4000</v>
       </c>
       <c r="E98" s="1">
-        <v>7900</v>
+        <v>5800</v>
       </c>
       <c r="F98" s="5">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="G98" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H98" s="1">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="I98" s="1">
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="J98" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K98" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L98" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="C99" s="8">
-        <v>34.740374167911497</v>
+        <v>138.24022353009201</v>
       </c>
       <c r="D99" s="4">
-        <v>400</v>
+        <v>3100</v>
       </c>
       <c r="E99" s="2">
-        <v>500</v>
+        <v>3800</v>
       </c>
       <c r="F99" s="6">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="G99" s="4">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H99" s="2">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="I99" s="2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J99" s="4">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K99" s="2">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="L99" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="C100" s="7">
-        <v>103.55758268594499</v>
+        <v>80.270260120692399</v>
       </c>
       <c r="D100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F100" s="5">
         <v>500</v>
       </c>
       <c r="G100" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H100" s="1">
         <v>700</v>
       </c>
       <c r="I100" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J100" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K100" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L100" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C101" s="8">
-        <v>22.9246785522</v>
+        <v>739.19016457215798</v>
       </c>
       <c r="D101" s="4">
-        <v>300</v>
+        <v>8000</v>
       </c>
       <c r="E101" s="2">
-        <v>400</v>
+        <v>11200</v>
       </c>
       <c r="F101" s="6">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="G101" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H101" s="2">
-        <v>100</v>
+        <v>6100</v>
       </c>
       <c r="I101" s="2">
-        <v>100</v>
+        <v>3600</v>
       </c>
       <c r="J101" s="4">
         <v>14</v>
       </c>
       <c r="K101" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L101" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C102" s="7">
-        <v>336.499530098604</v>
+        <v>267.92622124632402</v>
       </c>
       <c r="D102" s="3">
-        <v>14300</v>
+        <v>3400</v>
       </c>
       <c r="E102" s="1">
-        <v>15900</v>
+        <v>4500</v>
       </c>
       <c r="F102" s="5">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H102" s="1">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="I102" s="1">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="J102" s="3">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="K102" s="1">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L102" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="C103" s="8">
-        <v>154.44815879192299</v>
+        <v>65.353562356640495</v>
       </c>
       <c r="D103" s="4">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="E103" s="2">
-        <v>3400</v>
+        <v>900</v>
       </c>
       <c r="F103" s="6">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G103" s="4">
+        <v>200</v>
+      </c>
+      <c r="H103" s="2">
         <v>600</v>
       </c>
-      <c r="H103" s="2">
-        <v>900</v>
-      </c>
       <c r="I103" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J103" s="4">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K103" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L103" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C104" s="7">
-        <v>148.11595587360699</v>
+        <v>70.611976668679802</v>
       </c>
       <c r="D104" s="3">
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="E104" s="1">
-        <v>700</v>
+        <v>2900</v>
       </c>
       <c r="F104" s="5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G104" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H104" s="1">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I104" s="1">
         <v>300</v>
       </c>
       <c r="J104" s="3">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="K104" s="1">
+        <v>48</v>
+      </c>
+      <c r="L104" s="5">
         <v>9</v>
-      </c>
-      <c r="L104" s="5">
-        <v>7</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="C105" s="8">
-        <v>739.19016457215798</v>
+        <v>55.628335301250502</v>
       </c>
       <c r="D105" s="4">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="E105" s="2">
-        <v>11200</v>
+        <v>500</v>
       </c>
       <c r="F105" s="6">
-        <v>3200</v>
+        <v>300</v>
       </c>
       <c r="G105" s="4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H105" s="2">
-        <v>4500</v>
+        <v>300</v>
       </c>
       <c r="I105" s="2">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="J105" s="4">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K105" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L105" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C106" s="7">
-        <v>55.628335301250502</v>
+        <v>419.92495847443502</v>
       </c>
       <c r="D106" s="3">
-        <v>200</v>
+        <v>5900</v>
       </c>
       <c r="E106" s="1">
-        <v>500</v>
+        <v>7900</v>
       </c>
       <c r="F106" s="5">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H106" s="1">
-        <v>100</v>
+        <v>2400</v>
       </c>
       <c r="I106" s="1">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="J106" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K106" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L106" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="C107" s="8">
-        <v>271.81388938152202</v>
+        <v>21.507384993370302</v>
       </c>
       <c r="D107" s="4">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="E107" s="2">
-        <v>3800</v>
+        <v>100</v>
       </c>
       <c r="F107" s="6">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="G107" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="H107" s="2">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="I107" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J107" s="4">
+        <v>4</v>
+      </c>
+      <c r="K107" s="2">
         <v>13</v>
       </c>
-      <c r="K107" s="2">
-        <v>19</v>
-      </c>
       <c r="L107" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" s="9" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="C108" s="7">
-        <v>21.507384993370302</v>
+        <v>53.453818442418303</v>
       </c>
       <c r="D108" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E108" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F108" s="5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G108" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H108" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I108" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J108" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K108" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L108" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="C109" s="8">
-        <v>115.35180092047899</v>
+        <v>154.44815879192299</v>
       </c>
       <c r="D109" s="4">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="E109" s="2">
-        <v>1900</v>
+        <v>3400</v>
       </c>
       <c r="F109" s="6">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G109" s="4">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H109" s="2">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="I109" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J109" s="4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K109" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L109" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="C110" s="7">
-        <v>25.478251634623199</v>
+        <v>46.743100400889098</v>
       </c>
       <c r="D110" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E110" s="1">
         <v>500</v>
       </c>
       <c r="F110" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G110" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H110" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I110" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J110" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K110" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L110" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C111" s="8">
-        <v>53.453818442418303</v>
+        <v>109.53354959624301</v>
       </c>
       <c r="D111" s="4">
-        <v>200</v>
+        <v>2600</v>
       </c>
       <c r="E111" s="2">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="F111" s="6">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G111" s="4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H111" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I111" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J111" s="4">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K111" s="2">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L111" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C112" s="7">
-        <v>14.4952248380496</v>
+        <v>167.55890278623099</v>
       </c>
       <c r="D112" s="3">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="E112" s="1">
-        <v>400</v>
+        <v>2900</v>
       </c>
       <c r="F112" s="5">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G112" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H112" s="1">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="I112" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J112" s="3">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="K112" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L112" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C113" s="8">
-        <v>46.743100400889098</v>
+        <v>32.189503917227</v>
       </c>
       <c r="D113" s="4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E113" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F113" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G113" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H113" s="2">
         <v>300</v>
       </c>
       <c r="I113" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J113" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K113" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L113" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="C114" s="7">
-        <v>109.53354959624301</v>
+        <v>271.81388938152202</v>
       </c>
       <c r="D114" s="3">
         <v>2600</v>
       </c>
       <c r="E114" s="1">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="F114" s="5">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G114" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H114" s="1">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="I114" s="1">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="J114" s="3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K114" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L114" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="C115" s="8">
-        <v>167.55890278623099</v>
+        <v>182.81284189375199</v>
       </c>
       <c r="D115" s="4">
-        <v>2200</v>
+        <v>100</v>
       </c>
       <c r="E115" s="2">
-        <v>2900</v>
+        <v>700</v>
       </c>
       <c r="F115" s="6">
+        <v>600</v>
+      </c>
+      <c r="G115" s="4">
         <v>700</v>
       </c>
-      <c r="G115" s="4">
-        <v>300</v>
-      </c>
       <c r="H115" s="2">
+        <v>1400</v>
+      </c>
+      <c r="I115" s="2">
         <v>700</v>
       </c>
-      <c r="I115" s="2">
-        <v>400</v>
-      </c>
       <c r="J115" s="4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K115" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L115" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.25">
@@ -5611,208 +5611,208 @@
         <v>100</v>
       </c>
       <c r="H116" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I116" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J116" s="3">
         <v>3</v>
       </c>
       <c r="K116" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L116" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C117" s="8">
-        <v>65.353562356640495</v>
+        <v>12.650576132046499</v>
       </c>
       <c r="D117" s="4">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E117" s="2">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F117" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G117" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H117" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I117" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J117" s="4">
+        <v>6</v>
+      </c>
+      <c r="K117" s="2">
         <v>14</v>
       </c>
-      <c r="K117" s="2">
-        <v>19</v>
-      </c>
       <c r="L117" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="C118" s="7">
-        <v>32.189503917227</v>
+        <v>148.11595587360699</v>
       </c>
       <c r="D118" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E118" s="1">
+        <v>700</v>
+      </c>
+      <c r="F118" s="5">
         <v>600</v>
       </c>
-      <c r="F118" s="5">
-        <v>100</v>
-      </c>
       <c r="G118" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H118" s="1">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="I118" s="1">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J118" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K118" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L118" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C119" s="8">
-        <v>41.580517344563702</v>
+        <v>74.546396585402107</v>
       </c>
       <c r="D119" s="4">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="E119" s="2">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="F119" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G119" s="4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H119" s="2">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I119" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J119" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K119" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L119" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="C120" s="7">
-        <v>207.29117773237601</v>
+        <v>219.93961435708101</v>
       </c>
       <c r="D120" s="3">
-        <v>4100</v>
+        <v>1100</v>
       </c>
       <c r="E120" s="1">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="F120" s="5">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G120" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="H120" s="1">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="I120" s="1">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="J120" s="3">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K120" s="1">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="L120" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C121" s="8">
-        <v>102.697425287353</v>
+        <v>41.580517344563702</v>
       </c>
       <c r="D121" s="4">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="E121" s="2">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="F121" s="6">
+        <v>100</v>
+      </c>
+      <c r="G121" s="4">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2">
         <v>200</v>
       </c>
-      <c r="G121" s="4">
-        <v>0</v>
-      </c>
-      <c r="H121" s="2">
-        <v>300</v>
-      </c>
       <c r="I121" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J121" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K121" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L121" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C122" s="7">
-        <v>35.907902480713702</v>
+        <v>25.478251634623199</v>
       </c>
       <c r="D122" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E122" s="1">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F122" s="5">
         <v>100</v>
@@ -5827,363 +5827,363 @@
         <v>100</v>
       </c>
       <c r="J122" s="3">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K122" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L122" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="C123" s="8">
-        <v>182.81284189375199</v>
+        <v>336.499530098604</v>
       </c>
       <c r="D123" s="4">
-        <v>100</v>
+        <v>14300</v>
       </c>
       <c r="E123" s="2">
-        <v>700</v>
+        <v>15900</v>
       </c>
       <c r="F123" s="6">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="G123" s="4">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="H123" s="2">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I123" s="2">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="J123" s="4">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="K123" s="2">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="L123" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C124" s="7">
-        <v>139.22995567624099</v>
+        <v>102.697425287353</v>
       </c>
       <c r="D124" s="3">
-        <v>900</v>
+        <v>2600</v>
       </c>
       <c r="E124" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="F124" s="5">
+        <v>200</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
         <v>500</v>
       </c>
-      <c r="G124" s="3">
-        <v>100</v>
-      </c>
-      <c r="H124" s="1">
-        <v>300</v>
-      </c>
       <c r="I124" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J124" s="3">
+        <v>25</v>
+      </c>
+      <c r="K124" s="1">
+        <v>32</v>
+      </c>
+      <c r="L124" s="5">
         <v>7</v>
-      </c>
-      <c r="K124" s="1">
-        <v>12</v>
-      </c>
-      <c r="L124" s="5">
-        <v>5</v>
       </c>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C125" s="8">
-        <v>12.650576132046499</v>
+        <v>35.907902480713702</v>
       </c>
       <c r="D125" s="4">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E125" s="2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F125" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G125" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H125" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I125" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J125" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K125" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L125" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B126" s="9" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C126" s="7">
-        <v>74.546396585402107</v>
+        <v>426.38742595105401</v>
       </c>
       <c r="D126" s="3">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="E126" s="1">
-        <v>1700</v>
+        <v>5000</v>
       </c>
       <c r="F126" s="5">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="G126" s="3">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="H126" s="1">
-        <v>500</v>
+        <v>3800</v>
       </c>
       <c r="I126" s="1">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="J126" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K126" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L126" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="C127" s="8">
-        <v>219.93961435708101</v>
+        <v>100.992624610916</v>
       </c>
       <c r="D127" s="4">
+        <v>900</v>
+      </c>
+      <c r="E127" s="2">
         <v>1100</v>
       </c>
-      <c r="E127" s="2">
-        <v>1600</v>
-      </c>
       <c r="F127" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G127" s="4">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="H127" s="2">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="I127" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J127" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K127" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L127" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B128" s="9" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C128" s="7">
-        <v>426.38742595105401</v>
+        <v>299.04491646500099</v>
       </c>
       <c r="D128" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E128" s="1">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="F128" s="5">
+        <v>700</v>
+      </c>
+      <c r="G128" s="3">
         <v>1200</v>
       </c>
-      <c r="G128" s="3">
-        <v>2700</v>
-      </c>
       <c r="H128" s="1">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="I128" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="J128" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K128" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L128" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C129" s="8">
-        <v>100.992624610916</v>
+        <v>207.29117773237601</v>
       </c>
       <c r="D129" s="4">
-        <v>900</v>
+        <v>4100</v>
       </c>
       <c r="E129" s="2">
-        <v>1100</v>
+        <v>4800</v>
       </c>
       <c r="F129" s="6">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G129" s="4">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="H129" s="2">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="I129" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J129" s="4">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K129" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L129" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="C130" s="7">
-        <v>299.04491646500099</v>
+        <v>33.880689348942099</v>
       </c>
       <c r="D130" s="3">
-        <v>3900</v>
+        <v>200</v>
       </c>
       <c r="E130" s="1">
-        <v>4600</v>
+        <v>200</v>
       </c>
       <c r="F130" s="5">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G130" s="3">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="H130" s="1">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="I130" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J130" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K130" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L130" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C131" s="8">
-        <v>33.880689348942099</v>
+        <v>114.989185312942</v>
       </c>
       <c r="D131" s="4">
+        <v>100</v>
+      </c>
+      <c r="E131" s="2">
+        <v>400</v>
+      </c>
+      <c r="F131" s="6">
+        <v>300</v>
+      </c>
+      <c r="G131" s="4">
         <v>200</v>
       </c>
-      <c r="E131" s="2">
-        <v>200</v>
-      </c>
-      <c r="F131" s="6">
-        <v>0</v>
-      </c>
-      <c r="G131" s="4">
-        <v>100</v>
-      </c>
       <c r="H131" s="2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="I131" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J131" s="4">
+        <v>3</v>
+      </c>
+      <c r="K131" s="2">
+        <v>9</v>
+      </c>
+      <c r="L131" s="6">
         <v>6</v>
-      </c>
-      <c r="K131" s="2">
-        <v>10</v>
-      </c>
-      <c r="L131" s="6">
-        <v>4</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="C132" s="7">
-        <v>114.989185312942</v>
+        <v>139.22995567624099</v>
       </c>
       <c r="D132" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E132" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F132" s="5">
+        <v>500</v>
+      </c>
+      <c r="G132" s="3">
+        <v>100</v>
+      </c>
+      <c r="H132" s="1">
+        <v>500</v>
+      </c>
+      <c r="I132" s="1">
         <v>400</v>
       </c>
-      <c r="F132" s="5">
-        <v>300</v>
-      </c>
-      <c r="G132" s="3">
-        <v>200</v>
-      </c>
-      <c r="H132" s="1">
-        <v>400</v>
-      </c>
-      <c r="I132" s="1">
-        <v>200</v>
-      </c>
       <c r="J132" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K132" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L132" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="2:12" x14ac:dyDescent="0.25">
@@ -6206,290 +6206,290 @@
         <v>100</v>
       </c>
       <c r="H133" s="2">
+        <v>300</v>
+      </c>
+      <c r="I133" s="2">
         <v>200</v>
-      </c>
-      <c r="I133" s="2">
-        <v>100</v>
       </c>
       <c r="J133" s="4">
         <v>2</v>
       </c>
       <c r="K133" s="2">
+        <v>7</v>
+      </c>
+      <c r="L133" s="6">
         <v>5</v>
-      </c>
-      <c r="L133" s="6">
-        <v>3</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C134" s="7">
+        <v>72.453487665738805</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1800</v>
+      </c>
+      <c r="F134" s="5">
+        <v>200</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H134" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I134" s="1">
+        <v>200</v>
+      </c>
+      <c r="J134" s="3">
+        <v>37</v>
+      </c>
+      <c r="K134" s="1">
         <v>42</v>
       </c>
-      <c r="C134" s="7">
-        <v>23.767310909282902</v>
-      </c>
-      <c r="D134" s="3">
-        <v>400</v>
-      </c>
-      <c r="E134" s="1">
-        <v>500</v>
-      </c>
-      <c r="F134" s="5">
-        <v>100</v>
-      </c>
-      <c r="G134" s="3">
-        <v>100</v>
-      </c>
-      <c r="H134" s="1">
-        <v>100</v>
-      </c>
-      <c r="I134" s="1">
-        <v>0</v>
-      </c>
-      <c r="J134" s="3">
-        <v>22</v>
-      </c>
-      <c r="K134" s="1">
-        <v>25</v>
-      </c>
       <c r="L134" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="C135" s="8">
-        <v>72.453487665738805</v>
+        <v>55.5967114829064</v>
       </c>
       <c r="D135" s="4">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="E135" s="2">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="F135" s="6">
+        <v>100</v>
+      </c>
+      <c r="G135" s="4">
+        <v>100</v>
+      </c>
+      <c r="H135" s="2">
+        <v>300</v>
+      </c>
+      <c r="I135" s="2">
         <v>200</v>
       </c>
-      <c r="G135" s="4">
-        <v>1000</v>
-      </c>
-      <c r="H135" s="2">
-        <v>1100</v>
-      </c>
-      <c r="I135" s="2">
-        <v>100</v>
-      </c>
       <c r="J135" s="4">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="K135" s="2">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L135" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B136" s="9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C136" s="7">
-        <v>452.61679144507599</v>
+        <v>23.767310909282902</v>
       </c>
       <c r="D136" s="3">
-        <v>12200</v>
+        <v>400</v>
       </c>
       <c r="E136" s="1">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="F136" s="5">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G136" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="H136" s="1">
-        <v>3100</v>
+        <v>100</v>
       </c>
       <c r="I136" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J136" s="3">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="K136" s="1">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L136" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C137" s="8">
-        <v>4.4064962869784701</v>
+        <v>452.61679144507599</v>
       </c>
       <c r="D137" s="4">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="E137" s="2">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="F137" s="6">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G137" s="4">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="H137" s="2">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="I137" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J137" s="4">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K137" s="2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="L137" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="C138" s="7">
-        <v>55.5967114829064</v>
+        <v>4.4064962869784701</v>
       </c>
       <c r="D138" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E138" s="1">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F138" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G138" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H138" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I138" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J138" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K138" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L138" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C139" s="8">
-        <v>30.938149542212098</v>
+        <v>156.62402664258701</v>
       </c>
       <c r="D139" s="4">
+        <v>4500</v>
+      </c>
+      <c r="E139" s="2">
+        <v>4700</v>
+      </c>
+      <c r="F139" s="6">
+        <v>200</v>
+      </c>
+      <c r="G139" s="4">
         <v>600</v>
       </c>
-      <c r="E139" s="2">
-        <v>700</v>
-      </c>
-      <c r="F139" s="6">
-        <v>100</v>
-      </c>
-      <c r="G139" s="4">
-        <v>100</v>
-      </c>
       <c r="H139" s="2">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="I139" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J139" s="4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K139" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L139" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B140" s="9" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C140" s="7">
-        <v>156.62402664258701</v>
+        <v>126.848809376349</v>
       </c>
       <c r="D140" s="3">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="E140" s="1">
-        <v>4700</v>
+        <v>3100</v>
       </c>
       <c r="F140" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G140" s="3">
         <v>600</v>
       </c>
       <c r="H140" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I140" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J140" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K140" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L140" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="C141" s="8">
-        <v>23.086442578497</v>
+        <v>98.052428322630504</v>
       </c>
       <c r="D141" s="4">
         <v>0</v>
       </c>
       <c r="E141" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F141" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G141" s="4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H141" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I141" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J141" s="4">
         <v>3</v>
@@ -6503,34 +6503,34 @@
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B142" s="9" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C142" s="7">
-        <v>126.848809376349</v>
+        <v>30.938149542212098</v>
       </c>
       <c r="D142" s="3">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="E142" s="1">
-        <v>3100</v>
+        <v>700</v>
       </c>
       <c r="F142" s="5">
         <v>100</v>
       </c>
       <c r="G142" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="H142" s="1">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="I142" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J142" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K142" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L142" s="5">
         <v>2</v>
@@ -6538,10 +6538,10 @@
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C143" s="8">
-        <v>98.052428322630504</v>
+        <v>96.6508128756888</v>
       </c>
       <c r="D143" s="4">
         <v>0</v>
@@ -6553,144 +6553,144 @@
         <v>100</v>
       </c>
       <c r="G143" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H143" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I143" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J143" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K143" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L143" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B144" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C144" s="7">
-        <v>8.2216910735482198</v>
+        <v>53.9411229196741</v>
       </c>
       <c r="D144" s="3">
         <v>0</v>
       </c>
       <c r="E144" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F144" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G144" s="3">
         <v>100</v>
       </c>
       <c r="H144" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I144" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J144" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K144" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="L144" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C145" s="8">
-        <v>96.6508128756888</v>
+        <v>28.7521035349451</v>
       </c>
       <c r="D145" s="4">
         <v>0</v>
       </c>
       <c r="E145" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F145" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G145" s="4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H145" s="2">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I145" s="2">
         <v>0</v>
       </c>
       <c r="J145" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K145" s="2">
         <v>5</v>
       </c>
       <c r="L145" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C146" s="7">
-        <v>845.68579825562199</v>
+        <v>23.086442578497</v>
       </c>
       <c r="D146" s="3">
         <v>0</v>
       </c>
       <c r="E146" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F146" s="5">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G146" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H146" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I146" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J146" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K146" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L146" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C147" s="8">
-        <v>53.9411229196741</v>
+        <v>8.2216910735482198</v>
       </c>
       <c r="D147" s="4">
         <v>0</v>
       </c>
       <c r="E147" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F147" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G147" s="4">
         <v>100</v>
@@ -6702,10 +6702,10 @@
         <v>0</v>
       </c>
       <c r="J147" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K147" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="L147" s="6">
         <v>1</v>
@@ -6713,34 +6713,34 @@
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="C148" s="7">
-        <v>28.7521035349451</v>
+        <v>845.68579825562199</v>
       </c>
       <c r="D148" s="3">
         <v>0</v>
       </c>
       <c r="E148" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F148" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G148" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H148" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I148" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J148" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K148" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L148" s="5">
         <v>1</v>
@@ -6766,10 +6766,10 @@
         <v>300</v>
       </c>
       <c r="H149" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I149" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J149" s="4">
         <v>6</v>
@@ -6959,7 +6959,7 @@
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B155" s="11"/>
       <c r="C155" s="12">
-        <v>36374.3731105755</v>
+        <v>36374.373105956198</v>
       </c>
       <c r="D155" s="13">
         <v>483900</v>
@@ -6974,19 +6974,19 @@
         <v>84000</v>
       </c>
       <c r="H155" s="14">
-        <v>341800</v>
+        <v>437500</v>
       </c>
       <c r="I155" s="14">
-        <v>257800</v>
+        <v>353500</v>
       </c>
       <c r="J155" s="13">
         <v>16</v>
       </c>
       <c r="K155" s="14">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L155" s="15">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
